--- a/scripts/entries.xlsx
+++ b/scripts/entries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="175">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -488,6 +488,63 @@
   </si>
   <si>
     <t xml:space="preserve">Chez Reavie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/17 11:26:59 PM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean Buckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/17 11:30:41 PM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xander Schauffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Kokrak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/17 11:41:10 PM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/17 11:45:21 PM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/17 11:46:00 PM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Finau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/17 11:48:14 PM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si Woo Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/18 12:08:48 AM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Heckmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/18 12:12:46 AM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Heckmann Team B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Noren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/07/18 12:17:02 AM AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Hckmann Team C</t>
   </si>
 </sst>
 </file>
@@ -585,10 +642,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,7 +657,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -2112,6 +2169,241 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/scripts/entries.xlsx
+++ b/scripts/entries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="95">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Tiebreaker #2 - Total Cumulative Strokes of 2019 Memorial Champion Patrick Cantlay</t>
   </si>
   <si>
-    <t xml:space="preserve">Curtis Chapin #1 </t>
+    <t xml:space="preserve">Curtis Chapin</t>
   </si>
   <si>
     <t xml:space="preserve">Bryson DeChambeau</t>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">Jim Furyk</t>
   </si>
   <si>
-    <t xml:space="preserve">Curtis Chapin #2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Collin Morikawa</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t xml:space="preserve">Zach Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">Curtis Chapin #3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dustin Johnson</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t xml:space="preserve">Erik Van Rooyen</t>
   </si>
   <si>
-    <t xml:space="preserve">Chris Rose - 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sungjae Im</t>
   </si>
   <si>
@@ -148,31 +139,22 @@
     <t xml:space="preserve">Emiliano Grillo</t>
   </si>
   <si>
-    <t xml:space="preserve">Chris Rose - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kili Entry 1</t>
+    <t xml:space="preserve">Kili</t>
   </si>
   <si>
     <t xml:space="preserve">Tony Finau</t>
   </si>
   <si>
-    <t xml:space="preserve">Kili Entry 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Patrick Reed</t>
   </si>
   <si>
-    <t xml:space="preserve">Kili Entry 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tiger Woods</t>
   </si>
   <si>
     <t xml:space="preserve">Phil Mickelson</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaz 1</t>
+    <t xml:space="preserve">Kaz</t>
   </si>
   <si>
     <t xml:space="preserve">Brooks Koepka</t>
@@ -184,9 +166,6 @@
     <t xml:space="preserve">Mackenzie Hughes</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaz 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rickie Fowler</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t xml:space="preserve">Branden Grace</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaz 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jason Dufner</t>
   </si>
   <si>
@@ -217,21 +193,15 @@
     <t xml:space="preserve">Justin Rose</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Marshall Entry 1</t>
+    <t xml:space="preserve">Max Marshall</t>
   </si>
   <si>
     <t xml:space="preserve">Steve Stricker</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Marshall Entry 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rory McIlroy</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Marshall Entry 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Troy Merritt</t>
   </si>
   <si>
@@ -265,18 +235,12 @@
     <t xml:space="preserve">Shane Lowry</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan Romes 1</t>
+    <t xml:space="preserve">Ryan Romes</t>
   </si>
   <si>
     <t xml:space="preserve">Brendan Steele</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan Romes 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Romes 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ryan Moore</t>
   </si>
   <si>
@@ -301,13 +265,7 @@
     <t xml:space="preserve">Cameron Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">DON #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DON #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DON #3</t>
+    <t xml:space="preserve">DON</t>
   </si>
   <si>
     <t xml:space="preserve">Jason Day</t>
@@ -325,34 +283,19 @@
     <t xml:space="preserve">Harold Varner III</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sean Buckle 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sean Buckle 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sean Buckle 3</t>
+    <t xml:space="preserve">Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean Buckle</t>
   </si>
   <si>
     <t xml:space="preserve">Bernd Wiesberger</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan #2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kevin O'Brien</t>
   </si>
   <si>
-    <t xml:space="preserve">Cameron Weimer - Entry #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Weimer - Entry #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Weimer - Entry #3</t>
+    <t xml:space="preserve">Cameron Weimer</t>
   </si>
   <si>
     <t xml:space="preserve">Andrew Putnam</t>
@@ -479,12 +422,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="41:41"/>
+      <selection pane="bottomLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,19 +493,19 @@
         <v>44027.0399809722</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>270</v>
@@ -576,19 +519,19 @@
         <v>44027.0410270949</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>270</v>
@@ -602,19 +545,19 @@
         <v>44027.2452614236</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>275</v>
@@ -628,19 +571,19 @@
         <v>44027.2470631713</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>276</v>
@@ -654,19 +597,19 @@
         <v>44027.2475165741</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>276</v>
@@ -680,19 +623,19 @@
         <v>44027.390006794</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>271</v>
@@ -706,19 +649,19 @@
         <v>44027.3904980787</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>271</v>
@@ -732,19 +675,19 @@
         <v>44027.3908969444</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>271</v>
@@ -758,19 +701,19 @@
         <v>44027.3934777778</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>274</v>
@@ -784,19 +727,19 @@
         <v>44027.3940634375</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>273</v>
@@ -810,19 +753,19 @@
         <v>44027.3950343634</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>271</v>
@@ -836,19 +779,19 @@
         <v>44027.3997689236</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>273</v>
@@ -862,19 +805,19 @@
         <v>44027.4004057523</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>273</v>
@@ -888,19 +831,19 @@
         <v>44027.4013281829</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>273</v>
@@ -914,19 +857,19 @@
         <v>44027.4721884838</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>270</v>
@@ -940,19 +883,19 @@
         <v>44027.4734315394</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>274</v>
@@ -966,19 +909,19 @@
         <v>44027.4754819792</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>268</v>
@@ -992,7 +935,7 @@
         <v>44027.4938947801</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
@@ -1001,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>275</v>
@@ -1018,19 +961,19 @@
         <v>44027.494915625</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>275</v>
@@ -1044,19 +987,19 @@
         <v>44027.5091123495</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>275</v>
@@ -1070,19 +1013,19 @@
         <v>44027.5724243056</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>270</v>
@@ -1096,19 +1039,19 @@
         <v>44027.5727987268</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>270</v>
@@ -1122,19 +1065,19 @@
         <v>44027.573379294</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>270</v>
@@ -1148,19 +1091,19 @@
         <v>44027.6401351042</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>272</v>
@@ -1174,16 +1117,16 @@
         <v>44027.6412259375</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
@@ -1200,19 +1143,19 @@
         <v>44027.6434578588</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>271</v>
@@ -1226,19 +1169,19 @@
         <v>44027.678526632</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>270</v>
@@ -1252,19 +1195,19 @@
         <v>44027.6792354745</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>270</v>
@@ -1278,19 +1221,19 @@
         <v>44027.681830544</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>270</v>
@@ -1304,19 +1247,19 @@
         <v>44027.6966461343</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>272</v>
@@ -1330,19 +1273,19 @@
         <v>44027.6976525926</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>272</v>
@@ -1356,19 +1299,19 @@
         <v>44027.6991947917</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>272</v>
@@ -1382,19 +1325,19 @@
         <v>44027.7264307755</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>-11</v>
@@ -1408,19 +1351,19 @@
         <v>44027.7270721875</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>-12</v>
@@ -1434,19 +1377,19 @@
         <v>44027.727735787</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>-14</v>
@@ -1460,7 +1403,7 @@
         <v>44027.7311468171</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>9</v>
@@ -1469,10 +1412,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>274</v>
@@ -1486,19 +1429,19 @@
         <v>44027.7340151157</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>274</v>
@@ -1512,19 +1455,19 @@
         <v>44027.7368129977</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>274</v>
@@ -1538,19 +1481,19 @@
         <v>44027.8366417708</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>270</v>
@@ -1564,19 +1507,19 @@
         <v>44027.8366417708</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>270</v>
@@ -1590,19 +1533,19 @@
         <v>44027.8366417708</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>270</v>
@@ -1616,7 +1559,7 @@
         <v>44027.9412500347</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
@@ -1625,10 +1568,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G44" s="3" t="n">
         <v>274</v>
@@ -1639,184 +1582,184 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>44027.9468571296</v>
+        <v>44027.9502484954</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>44027.9487965046</v>
+        <v>44027.9514464815</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>274</v>
       </c>
       <c r="H46" s="3" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>44027.9468571296</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="3" t="n">
         <v>276</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
-        <v>44027.9497747685</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <v>272</v>
-      </c>
       <c r="H47" s="3" t="n">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>44027.9502484954</v>
+        <v>44027.9487965046</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E48" s="3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G48" s="3" t="n">
         <v>274</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>44027.9514464815</v>
+        <v>44027.9497747685</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>44027.9600029514</v>
+        <v>44027.9619033796</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G50" s="3" t="n">
+        <v>265</v>
+      </c>
+      <c r="H50" s="3" t="n">
         <v>269</v>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>276</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>44027.9612723727</v>
+        <v>44027.9619033796</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,19 +1767,19 @@
         <v>44027.9619033796</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" s="3" t="n">
         <v>265</v>
@@ -1850,19 +1793,19 @@
         <v>44027.9788919676</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="3" t="n">
         <v>274</v>
@@ -1876,19 +1819,19 @@
         <v>44027.9811678241</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G54" s="3" t="n">
         <v>273</v>
@@ -1902,19 +1845,19 @@
         <v>44027.9910758102</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G55" s="3" t="n">
         <v>272</v>
@@ -1928,19 +1871,19 @@
         <v>44027.9978716551</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G56" s="3" t="n">
         <v>271</v>
@@ -1954,19 +1897,19 @@
         <v>44028.0050799074</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G57" s="3" t="n">
         <v>173</v>
@@ -1980,19 +1923,19 @@
         <v>44028.0072774769</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G58" s="3" t="n">
         <v>172</v>
@@ -2001,6 +1944,7 @@
         <v>176</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scripts/entries.xlsx
+++ b/scripts/entries.xlsx
@@ -425,9 +425,9 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1710,61 +1710,61 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>44027.9619033796</v>
+        <v>44027.96</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>44027.9619033796</v>
+        <v>44027.9612731482</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>44027.9619033796</v>
+        <v>44027.9618981482</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>90</v>
